--- a/Employee_Data.xlsx
+++ b/Employee_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -34,88 +34,292 @@
     <x:t>Address</x:t>
   </x:si>
   <x:si>
-    <x:t>DeniseLShumate</x:t>
+    <x:t>ClaytonFWilson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unemployed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer and Mathematical Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Developer, Systems Software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golf Augusta Pro Shops</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eugene, Oregon, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CharlesEAmmon</x:t>
   </x:si>
   <x:si>
     <x:t>Full-time work</x:t>
   </x:si>
   <x:si>
-    <x:t>Computer and Mathematical Occupations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mathematician</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Simple Solutions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iron Mountain, Michigan, US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JordanJWilliams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Part-time work</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Healthcare Practitioners and Technical Occupations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dermatologist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sacramento, California, US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IlaJIbarra</x:t>
+    <x:t>Education, Training, and Library Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elementary School Teacher, Except Special Education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CompuAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Taylor, Michigan, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JuanEAddington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Own business</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Life, Physical, and Social Science Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Physical Scientist, All Other</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grey Fade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bellflower, California, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LarryCLivermore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Installation, Maintenance, and Repair Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heating and Air Conditioning Mechanic and Installer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Food Barn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Canton, Ohio, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AndersonLLindberg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arts, Design, Entertainment, Sports, and Media Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Producer and Director</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pro Garden Management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Collinsville, Illinois, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SharonRHolmes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Healthcare Support Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Psychiatric Aide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vari-Tec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raleigh, North Carolina, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EdgarSCotner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Architecture and Engineering Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fire-Prevention and Protection Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fretter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yonkers, New York, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BettySHastings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Military Specific Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Military Officer Special and Tactical Operations Leader, All Other</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Highland Appliance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake Forest, Illinois, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TeresaAQuinn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Production Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biofuels Processing Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Team Electronics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Port Arthur, Texas, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CharlesHJohnson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Protective Service Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fish and Game Warden</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marianne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clanton, Alabama, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DavidFBivens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Community and Social Services Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Social Worker, All Other</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chargepal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weehawken, New Jersey, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaryLRamirez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patternmaker, Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omni Tech Solutions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gainesville, Georgia, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DuaneRSingh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Personal Care and Service Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nonfarm Animal Caretaker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Portland, Maine, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AdaTJohnson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sewer, Hand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SoundTrack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dallas, Texas, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ChristinaBShoemaker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retired</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Life, Physical, and Social Science Technician, All Other</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Foxmoor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Columbus, Ohio, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LisaOBurgess</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Office and Administrative Support Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shipping, Receiving, and Traffic Clerk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boston Sea Party</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pensacola, Florida, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CherlyRHolmes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Legal Occupations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arbitrator, Mediator, and Conciliator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flagg Bros. Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington, Washington DC, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AnnRWelliver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Leave of absence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer Operator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Standard Brands Paint Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Palm Beach, Florida, US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JohnnyRSanders</x:t>
   </x:si>
   <x:si>
     <x:t>Management Occupations</x:t>
   </x:si>
   <x:si>
-    <x:t>Water Resource Specialist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zephyr Investments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Miami, Florida, US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TracyCSmith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Own business</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Business and Financial Operations Occupations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Examiner, Investigator and Analyst</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hughes Markets</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Camden, New Jersey, US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CedricLCryer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Leave of absence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computer User Support Specialist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tape World</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Milwaukee, Wisconsin, US</x:t>
+    <x:t>Education Administrator, Elementary and Secondary School</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Network Development</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Philadelphia, Pennsylvania, US</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -537,27 +741,27 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>25</x:v>
@@ -577,10 +781,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>31</x:v>
@@ -590,6 +794,306 @@
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
